--- a/Datasets/2nd Analysis Datasets/Results/TextBlob/Bias_Dataset_TextBlob.xlsx
+++ b/Datasets/2nd Analysis Datasets/Results/TextBlob/Bias_Dataset_TextBlob.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QuangDaoVuNgoc\github\bachelorthesis\Datasets\2nd Analysis Datasets\Results\TextBlob\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F23359-46DE-4584-BFC7-09113E398327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD187CF-62EE-44B7-BEF9-021CF63B25FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="3135" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,19 @@
   <definedNames>
     <definedName name="Textblob_Analysed_Bias_Dataset" localSheetId="0">Tabelle1!$A$1:$E$68</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -44,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="210">
   <si>
     <t>Polarity</t>
   </si>
@@ -658,10 +667,22 @@
     <t>0.7678807638006487</t>
   </si>
   <si>
-    <t>1itive_result</t>
-  </si>
-  <si>
-    <t>-1ative_result</t>
+    <t>Positive_result</t>
+  </si>
+  <si>
+    <t>Negative_result</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>FN</t>
   </si>
 </sst>
 </file>
@@ -983,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:N68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I2" sqref="I2:I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,7 +1019,7 @@
     <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1014,8 +1035,32 @@
       <c r="E1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I1" t="s">
+        <v>209</v>
+      </c>
+      <c r="K1" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" t="s">
+        <v>208</v>
+      </c>
+      <c r="N1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -1031,8 +1076,40 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="b">
+        <f>IF(AND(A2=-1,C2=-1),"TP")</f>
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <f>IF(AND(A2=1,C2=-1),"FP")</f>
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <f>IF(AND(A2=1,C2=1),"TN")</f>
+        <v>0</v>
+      </c>
+      <c r="I2" t="str">
+        <f>IF(AND(A2=-1,C2=1),"FN")</f>
+        <v>FN</v>
+      </c>
+      <c r="K2">
+        <f>COUNTIF(F2:F200,"TP")</f>
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <f>COUNTIF(G2:G200,"FP")</f>
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <f>COUNTIF(H2:H200,"TN")</f>
+        <v>34</v>
+      </c>
+      <c r="N2">
+        <f>COUNTIF(I2:I200,"FN")</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1048,8 +1125,24 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="b">
+        <f t="shared" ref="F3:F66" si="0">IF(AND(A3=-1,C3=-1),"TP")</f>
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <f t="shared" ref="G3:G66" si="1">IF(AND(A3=1,C3=-1),"FP")</f>
+        <v>0</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H66" si="2">IF(AND(A3=1,C3=1),"TN")</f>
+        <v>TN</v>
+      </c>
+      <c r="I3" t="b">
+        <f t="shared" ref="I3:I66" si="3">IF(AND(A3=-1,C3=1),"FN")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1065,8 +1158,24 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>FP</v>
+      </c>
+      <c r="H4" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-1</v>
       </c>
@@ -1082,8 +1191,24 @@
       <c r="E5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>TP</v>
+      </c>
+      <c r="G5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-1</v>
       </c>
@@ -1099,8 +1224,24 @@
       <c r="E6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="3"/>
+        <v>FN</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-1</v>
       </c>
@@ -1116,8 +1257,24 @@
       <c r="E7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>TP</v>
+      </c>
+      <c r="G7" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-1</v>
       </c>
@@ -1133,8 +1290,24 @@
       <c r="E8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>TP</v>
+      </c>
+      <c r="G8" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1150,8 +1323,24 @@
       <c r="E9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="I9" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1167,8 +1356,24 @@
       <c r="E10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="I10" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1184,8 +1389,24 @@
       <c r="E11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="I11" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1201,8 +1422,24 @@
       <c r="E12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="I12" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1218,8 +1455,24 @@
       <c r="E13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>FP</v>
+      </c>
+      <c r="H13" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1235,8 +1488,24 @@
       <c r="E14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>FP</v>
+      </c>
+      <c r="H14" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-1</v>
       </c>
@@ -1252,8 +1521,24 @@
       <c r="E15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>TP</v>
+      </c>
+      <c r="G15" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-1</v>
       </c>
@@ -1269,8 +1554,24 @@
       <c r="E16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="3"/>
+        <v>FN</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1286,8 +1587,24 @@
       <c r="E17" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="I17" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1303,8 +1620,24 @@
       <c r="E18" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>FP</v>
+      </c>
+      <c r="H18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1320,8 +1653,24 @@
       <c r="E19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="I19" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1337,8 +1686,24 @@
       <c r="E20" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="I20" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-1</v>
       </c>
@@ -1354,8 +1719,24 @@
       <c r="E21" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="3"/>
+        <v>FN</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1371,8 +1752,24 @@
       <c r="E22" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="I22" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-1</v>
       </c>
@@ -1388,8 +1785,24 @@
       <c r="E23" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="3"/>
+        <v>FN</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1405,8 +1818,24 @@
       <c r="E24" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="I24" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-1</v>
       </c>
@@ -1422,8 +1851,24 @@
       <c r="E25" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="3"/>
+        <v>FN</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1439,8 +1884,24 @@
       <c r="E26" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="I26" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1456,8 +1917,24 @@
       <c r="E27" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="I27" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1473,8 +1950,24 @@
       <c r="E28" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>FP</v>
+      </c>
+      <c r="H28" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I28" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-1</v>
       </c>
@@ -1490,8 +1983,24 @@
       <c r="E29" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="3"/>
+        <v>FN</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1507,8 +2016,24 @@
       <c r="E30" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="I30" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-1</v>
       </c>
@@ -1524,8 +2049,24 @@
       <c r="E31" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="3"/>
+        <v>FN</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-1</v>
       </c>
@@ -1541,8 +2082,24 @@
       <c r="E32" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="3"/>
+        <v>FN</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1558,8 +2115,24 @@
       <c r="E33" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="I33" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1575,8 +2148,24 @@
       <c r="E34" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="I34" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1592,8 +2181,24 @@
       <c r="E35" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="I35" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1609,8 +2214,24 @@
       <c r="E36" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="I36" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1626,8 +2247,24 @@
       <c r="E37" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="I37" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1643,8 +2280,24 @@
       <c r="E38" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="I38" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-1</v>
       </c>
@@ -1660,8 +2313,24 @@
       <c r="E39" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="3"/>
+        <v>FN</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-1</v>
       </c>
@@ -1677,8 +2346,24 @@
       <c r="E40" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>TP</v>
+      </c>
+      <c r="G40" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I40" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1694,8 +2379,24 @@
       <c r="E41" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G41" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="I41" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1711,8 +2412,24 @@
       <c r="E42" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G42" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="I42" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1728,8 +2445,24 @@
       <c r="E43" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G43" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="I43" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1745,8 +2478,24 @@
       <c r="E44" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G44" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="I44" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-1</v>
       </c>
@@ -1762,8 +2511,24 @@
       <c r="E45" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>TP</v>
+      </c>
+      <c r="G45" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I45" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -1779,8 +2544,24 @@
       <c r="E46" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G46" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="I46" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -1796,8 +2577,24 @@
       <c r="E47" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G47" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="I47" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-1</v>
       </c>
@@ -1813,8 +2610,24 @@
       <c r="E48" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G48" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="3"/>
+        <v>FN</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -1830,8 +2643,24 @@
       <c r="E49" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G49" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="I49" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -1847,8 +2676,24 @@
       <c r="E50" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G50" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="I50" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -1864,8 +2709,24 @@
       <c r="E51" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G51" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="I51" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -1881,8 +2742,24 @@
       <c r="E52" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="1"/>
+        <v>FP</v>
+      </c>
+      <c r="H52" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I52" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -1898,8 +2775,24 @@
       <c r="E53" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="1"/>
+        <v>FP</v>
+      </c>
+      <c r="H53" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I53" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -1915,8 +2808,24 @@
       <c r="E54" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G54" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="I54" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-1</v>
       </c>
@@ -1932,8 +2841,24 @@
       <c r="E55" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G55" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="3"/>
+        <v>FN</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -1949,8 +2874,24 @@
       <c r="E56" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="1"/>
+        <v>FP</v>
+      </c>
+      <c r="H56" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I56" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-1</v>
       </c>
@@ -1966,8 +2907,24 @@
       <c r="E57" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" t="str">
+        <f t="shared" si="0"/>
+        <v>TP</v>
+      </c>
+      <c r="G57" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I57" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-1</v>
       </c>
@@ -1983,8 +2940,24 @@
       <c r="E58" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" t="str">
+        <f t="shared" si="0"/>
+        <v>TP</v>
+      </c>
+      <c r="G58" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I58" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -2000,8 +2973,24 @@
       <c r="E59" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G59" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="I59" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-1</v>
       </c>
@@ -2017,8 +3006,24 @@
       <c r="E60" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G60" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="3"/>
+        <v>FN</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-1</v>
       </c>
@@ -2034,8 +3039,24 @@
       <c r="E61" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" t="str">
+        <f t="shared" si="0"/>
+        <v>TP</v>
+      </c>
+      <c r="G61" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I61" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2051,8 +3072,24 @@
       <c r="E62" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G62" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="I62" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -2068,8 +3105,24 @@
       <c r="E63" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G63" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="I63" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -2085,8 +3138,24 @@
       <c r="E64" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G64" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="I64" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -2102,8 +3171,24 @@
       <c r="E65" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G65" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="I65" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -2119,8 +3204,24 @@
       <c r="E66" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="1"/>
+        <v>FP</v>
+      </c>
+      <c r="H66" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I66" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-1</v>
       </c>
@@ -2136,8 +3237,24 @@
       <c r="E67" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" t="str">
+        <f t="shared" ref="F67" si="4">IF(AND(A67=-1,C67=-1),"TP")</f>
+        <v>TP</v>
+      </c>
+      <c r="G67" t="b">
+        <f t="shared" ref="G67:G68" si="5">IF(AND(A67=1,C67=-1),"FP")</f>
+        <v>0</v>
+      </c>
+      <c r="H67" t="b">
+        <f t="shared" ref="H67:H68" si="6">IF(AND(A67=1,C67=1),"TN")</f>
+        <v>0</v>
+      </c>
+      <c r="I67" t="b">
+        <f t="shared" ref="I67:I68" si="7">IF(AND(A67=-1,C67=1),"FN")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -2152,6 +3269,22 @@
       </c>
       <c r="E68" t="s">
         <v>203</v>
+      </c>
+      <c r="F68" t="b">
+        <f>IF(AND(A68=-1,C68=-1),"TP")</f>
+        <v>0</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="5"/>
+        <v>FP</v>
+      </c>
+      <c r="H68" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I68" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
